--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravi.puvvula\Documents\UiPath\Fake Name Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45603A24-7849-4675-8B99-68178126D07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5DFE4B-9390-49AB-B9E9-D690A627F190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Gender</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Max Number</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,16 +430,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
